--- a/natmiOut/OldD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H2">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I2">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J2">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N2">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O2">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P2">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q2">
-        <v>160.6631708954814</v>
+        <v>470.5142807082438</v>
       </c>
       <c r="R2">
-        <v>160.6631708954814</v>
+        <v>4234.628526374194</v>
       </c>
       <c r="S2">
-        <v>0.007613621870428433</v>
+        <v>0.0161299301095588</v>
       </c>
       <c r="T2">
-        <v>0.007613621870428433</v>
+        <v>0.0168457627402404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H3">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I3">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J3">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N3">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P3">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q3">
-        <v>86.17360150286518</v>
+        <v>170.728684626882</v>
       </c>
       <c r="R3">
-        <v>86.17360150286518</v>
+        <v>1536.558161641938</v>
       </c>
       <c r="S3">
-        <v>0.004083656592851742</v>
+        <v>0.005852833513540287</v>
       </c>
       <c r="T3">
-        <v>0.004083656592851742</v>
+        <v>0.006112577305514698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H4">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I4">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J4">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N4">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O4">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P4">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q4">
-        <v>470.2367757159915</v>
+        <v>1096.85188608825</v>
       </c>
       <c r="R4">
-        <v>470.2367757159915</v>
+        <v>9871.666974794247</v>
       </c>
       <c r="S4">
-        <v>0.02228391846069132</v>
+        <v>0.0376017158002304</v>
       </c>
       <c r="T4">
-        <v>0.02228391846069132</v>
+        <v>0.03927044808590038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H5">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I5">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J5">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N5">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O5">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P5">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q5">
-        <v>809.6468057752197</v>
+        <v>1589.984972691264</v>
       </c>
       <c r="R5">
-        <v>809.6468057752197</v>
+        <v>14309.86475422138</v>
       </c>
       <c r="S5">
-        <v>0.03836812502463877</v>
+        <v>0.05450705225387541</v>
       </c>
       <c r="T5">
-        <v>0.03836812502463877</v>
+        <v>0.05692602904674253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H6">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I6">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J6">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N6">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O6">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P6">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q6">
-        <v>57.37162342311058</v>
+        <v>128.9792177318718</v>
       </c>
       <c r="R6">
-        <v>57.37162342311058</v>
+        <v>773.875306391231</v>
       </c>
       <c r="S6">
-        <v>0.002718767744975857</v>
+        <v>0.004421599625986036</v>
       </c>
       <c r="T6">
-        <v>0.002718767744975857</v>
+        <v>0.003078550980517706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H7">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J7">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N7">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O7">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P7">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q7">
-        <v>700.5544349270361</v>
+        <v>1219.140759126674</v>
       </c>
       <c r="R7">
-        <v>700.5544349270361</v>
+        <v>10972.26683214007</v>
       </c>
       <c r="S7">
-        <v>0.03319837730985629</v>
+        <v>0.04179396044861253</v>
       </c>
       <c r="T7">
-        <v>0.03319837730985629</v>
+        <v>0.04364874099950927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H8">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J8">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N8">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P8">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q8">
-        <v>375.7506986199111</v>
+        <v>442.371903924804</v>
       </c>
       <c r="R8">
-        <v>375.7506986199111</v>
+        <v>3981.347135323236</v>
       </c>
       <c r="S8">
-        <v>0.01780634429717818</v>
+        <v>0.01516516753115104</v>
       </c>
       <c r="T8">
-        <v>0.01780634429717818</v>
+        <v>0.01583818481608757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H9">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J9">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N9">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O9">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P9">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q9">
-        <v>2050.41676233276</v>
+        <v>2842.032422570259</v>
       </c>
       <c r="R9">
-        <v>2050.41676233276</v>
+        <v>25578.29180313233</v>
       </c>
       <c r="S9">
-        <v>0.09716662392618577</v>
+        <v>0.09742910305751994</v>
       </c>
       <c r="T9">
-        <v>0.09716662392618577</v>
+        <v>0.1017529240953609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H10">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J10">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N10">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O10">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P10">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q10">
-        <v>3530.377605203179</v>
+        <v>4119.780346919595</v>
       </c>
       <c r="R10">
-        <v>3530.377605203179</v>
+        <v>37078.02312227636</v>
       </c>
       <c r="S10">
-        <v>0.1673000725432691</v>
+        <v>0.1412322043924366</v>
       </c>
       <c r="T10">
-        <v>0.1673000725432691</v>
+        <v>0.1474999699512773</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H11">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J11">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N11">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O11">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P11">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q11">
-        <v>250.1627784638373</v>
+        <v>334.1956405244637</v>
       </c>
       <c r="R11">
-        <v>250.1627784638373</v>
+        <v>2005.173843146782</v>
       </c>
       <c r="S11">
-        <v>0.01185489363034214</v>
+        <v>0.01145672415397186</v>
       </c>
       <c r="T11">
-        <v>0.01185489363034214</v>
+        <v>0.007976775909434719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H12">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I12">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J12">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N12">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O12">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P12">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q12">
-        <v>509.3844476976678</v>
+        <v>982.5182965048651</v>
       </c>
       <c r="R12">
-        <v>509.3844476976678</v>
+        <v>8842.664668543786</v>
       </c>
       <c r="S12">
-        <v>0.02413907649046746</v>
+        <v>0.03368219011361576</v>
       </c>
       <c r="T12">
-        <v>0.02413907649046746</v>
+        <v>0.03517697717049577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H13">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I13">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J13">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N13">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P13">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q13">
-        <v>273.2144035437461</v>
+        <v>356.5121469461521</v>
       </c>
       <c r="R13">
-        <v>273.2144035437461</v>
+        <v>3208.609322515368</v>
       </c>
       <c r="S13">
-        <v>0.01294728061535619</v>
+        <v>0.01222176722201544</v>
       </c>
       <c r="T13">
-        <v>0.01294728061535619</v>
+        <v>0.01276415889530168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H14">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I14">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J14">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N14">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O14">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P14">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q14">
-        <v>1490.891154146636</v>
+        <v>2290.423672189921</v>
       </c>
       <c r="R14">
-        <v>1490.891154146636</v>
+        <v>20613.81304970929</v>
       </c>
       <c r="S14">
-        <v>0.07065142206749735</v>
+        <v>0.07851913378291463</v>
       </c>
       <c r="T14">
-        <v>0.07065142206749735</v>
+        <v>0.08200374640757542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H15">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I15">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J15">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N15">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O15">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P15">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q15">
-        <v>2566.994593043915</v>
+        <v>3320.174096491743</v>
       </c>
       <c r="R15">
-        <v>2566.994593043915</v>
+        <v>29881.56686842569</v>
       </c>
       <c r="S15">
-        <v>0.1216465856234408</v>
+        <v>0.1138205115631489</v>
       </c>
       <c r="T15">
-        <v>0.1216465856234408</v>
+        <v>0.1188717694213271</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H16">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I16">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J16">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N16">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O16">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P16">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q16">
-        <v>181.8973978168987</v>
+        <v>269.3317641702527</v>
       </c>
       <c r="R16">
-        <v>181.8973978168987</v>
+        <v>1615.990585021516</v>
       </c>
       <c r="S16">
-        <v>0.008619884684671755</v>
+        <v>0.009233093894219464</v>
       </c>
       <c r="T16">
-        <v>0.008619884684671755</v>
+        <v>0.006428567185099347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H17">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I17">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J17">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N17">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O17">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P17">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q17">
-        <v>560.4213992217527</v>
+        <v>935.4710413168727</v>
       </c>
       <c r="R17">
-        <v>560.4213992217527</v>
+        <v>8419.239371851854</v>
       </c>
       <c r="S17">
-        <v>0.02655765224842107</v>
+        <v>0.03206934015529653</v>
       </c>
       <c r="T17">
-        <v>0.02655765224842107</v>
+        <v>0.03349255029766317</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H18">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I18">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J18">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N18">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O18">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P18">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q18">
-        <v>300.5886791667429</v>
+        <v>339.440792636862</v>
       </c>
       <c r="R18">
-        <v>300.5886791667429</v>
+        <v>3054.967133731758</v>
       </c>
       <c r="S18">
-        <v>0.01424451247259352</v>
+        <v>0.01163653577809438</v>
       </c>
       <c r="T18">
-        <v>0.01424451247259352</v>
+        <v>0.01215295537579107</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H19">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I19">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J19">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N19">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O19">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P19">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q19">
-        <v>1640.268583916597</v>
+        <v>2180.748211307953</v>
       </c>
       <c r="R19">
-        <v>1640.268583916597</v>
+        <v>19626.73390177157</v>
       </c>
       <c r="S19">
-        <v>0.07773022712223407</v>
+        <v>0.0747592956838522</v>
       </c>
       <c r="T19">
-        <v>0.07773022712223407</v>
+        <v>0.07807704987954846</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H20">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I20">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J20">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N20">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O20">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P20">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q20">
-        <v>2824.19046779023</v>
+        <v>3161.189700433286</v>
       </c>
       <c r="R20">
-        <v>2824.19046779023</v>
+        <v>28450.70730389958</v>
       </c>
       <c r="S20">
-        <v>0.1338347686777041</v>
+        <v>0.1083702897482589</v>
       </c>
       <c r="T20">
-        <v>0.1338347686777041</v>
+        <v>0.1131796713804988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H21">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I21">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J21">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N21">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O21">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P21">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q21">
-        <v>200.1223136279292</v>
+        <v>256.4349862840535</v>
       </c>
       <c r="R21">
-        <v>200.1223136279292</v>
+        <v>1538.609917704321</v>
       </c>
       <c r="S21">
-        <v>0.009483540100111341</v>
+        <v>0.008790973145769985</v>
       </c>
       <c r="T21">
-        <v>0.009483540100111341</v>
+        <v>0.006120739390007466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H22">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I22">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J22">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N22">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O22">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P22">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q22">
-        <v>209.2091221281346</v>
+        <v>362.500327275086</v>
       </c>
       <c r="R22">
-        <v>209.2091221281346</v>
+        <v>2175.001963650516</v>
       </c>
       <c r="S22">
-        <v>0.009914152315368603</v>
+        <v>0.01242705095972421</v>
       </c>
       <c r="T22">
-        <v>0.009914152315368603</v>
+        <v>0.008652368634229503</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H23">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I23">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J23">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N23">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O23">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P23">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q23">
-        <v>112.2117995091877</v>
+        <v>131.535229832622</v>
       </c>
       <c r="R23">
-        <v>112.2117995091877</v>
+        <v>789.2113789957319</v>
       </c>
       <c r="S23">
-        <v>0.005317573443257058</v>
+        <v>0.004509223526544861</v>
       </c>
       <c r="T23">
-        <v>0.005317573443257058</v>
+        <v>0.003139559363863135</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H24">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I24">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J24">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N24">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O24">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P24">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q24">
-        <v>612.3234247872917</v>
+        <v>845.052284238393</v>
       </c>
       <c r="R24">
-        <v>612.3234247872917</v>
+        <v>5070.313705430358</v>
       </c>
       <c r="S24">
-        <v>0.02901722275709972</v>
+        <v>0.02896965053466755</v>
       </c>
       <c r="T24">
-        <v>0.02901722275709972</v>
+        <v>0.02017019938544697</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H25">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I25">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J25">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N25">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O25">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P25">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q25">
-        <v>1054.289520902553</v>
+        <v>1224.97891476422</v>
       </c>
       <c r="R25">
-        <v>1054.289520902553</v>
+        <v>7349.87348858532</v>
       </c>
       <c r="S25">
-        <v>0.04996142992427982</v>
+        <v>0.04199410111652294</v>
       </c>
       <c r="T25">
-        <v>0.04996142992427982</v>
+        <v>0.02923850916044919</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H26">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I26">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J26">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N26">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O26">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P26">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q26">
-        <v>74.70702155644096</v>
+        <v>99.37000970323351</v>
       </c>
       <c r="R26">
-        <v>74.70702155644096</v>
+        <v>397.480038812934</v>
       </c>
       <c r="S26">
-        <v>0.0035402700570793</v>
+        <v>0.003406551888471199</v>
       </c>
       <c r="T26">
-        <v>0.0035402700570793</v>
+        <v>0.001581214122117438</v>
       </c>
     </row>
   </sheetData>
